--- a/SELECTS E ANÁLISES/2021-05-02 - palavras mais utilizadas.xlsx
+++ b/SELECTS E ANÁLISES/2021-05-02 - palavras mais utilizadas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t xml:space="preserve">idpalavra</t>
   </si>
@@ -412,10 +412,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="67:67 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
@@ -2184,13 +2184,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="67:67"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
@@ -2253,67 +2253,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>6262</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>6019</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5623</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>1669</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>5875</v>
+        <v>2620</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>-1</v>
@@ -2322,50 +2322,50 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5639</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2619</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>92</v>
+        <v>2333</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>5623</v>
+        <v>2059</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
@@ -2383,67 +2383,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1624</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>3372</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2913</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>290</v>
+        <v>1256</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2783</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -2455,47 +2455,47 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2080</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>2747</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2620</v>
+        <v>962</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>-1</v>
@@ -2510,30 +2510,30 @@
         <v>-1</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>575</v>
+        <v>3016</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2619</v>
+        <v>924</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2541,22 +2541,22 @@
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>462</v>
+        <v>677</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2351</v>
+        <v>895</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
@@ -2565,99 +2565,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>2257</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1774</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2124</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>2100</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
+    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>3776</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>7025</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>2333</v>
+        <v>2434</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>2059</v>
+        <v>718</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
@@ -2669,99 +2669,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>613</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1174</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
+    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>3019</v>
+        <v>2976</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1897</v>
+        <v>507</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
@@ -2775,16 +2775,16 @@
     </row>
     <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>1679</v>
+        <v>1387</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1726</v>
+        <v>472</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0</v>
@@ -2796,102 +2796,102 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1676</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1514</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1466</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>5720</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>5166</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>6793</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>1256</v>
+        <v>5168</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1149</v>
+        <v>373</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
@@ -2905,155 +2905,155 @@
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>963</v>
+        <v>3335</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1133</v>
+        <v>338</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>797</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1114</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>1201</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1089</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1426</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>992</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>4619</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>3960</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>3472</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>340</v>
+        <v>2313</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>962</v>
+        <v>277</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>3016</v>
+        <v>2382</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>924</v>
+        <v>267</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>677</v>
+        <v>4618</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>895</v>
+        <v>259</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0</v>
@@ -3087,16 +3087,16 @@
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>3776</v>
+        <v>2191</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>878</v>
+        <v>252</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>-1</v>
@@ -3105,21 +3105,21 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>7025</v>
+        <v>5294</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>826</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>-1</v>
@@ -3128,50 +3128,50 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>2135</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>782</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>6258</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>119</v>
+        <v>1176</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>727</v>
+        <v>213</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>-1</v>
@@ -3191,25 +3191,25 @@
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>2434</v>
+        <v>3313</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>718</v>
+        <v>211</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>0</v>
@@ -3217,25 +3217,25 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>715</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>0</v>
@@ -3243,703 +3243,27 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>68</v>
+        <v>5728</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>652</v>
+        <v>205</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>626</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>2976</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>3386</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>487</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>4005</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>1387</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>5720</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>5166</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>6793</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>5168</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>3335</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>4619</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>3960</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>3472</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>2471</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>2313</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>2382</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>4618</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>2191</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>5294</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>6258</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>1176</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>3313</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>5728</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
